--- a/misc/key bindings.xlsx
+++ b/misc/key bindings.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\c_engine\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\c_engine\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
   <si>
     <t>Key</t>
   </si>
@@ -264,6 +264,15 @@
   </si>
   <si>
     <t>DELETE LINE AFTER CURSOR</t>
+  </si>
+  <si>
+    <t>CTRL-S-BACKSPACE</t>
+  </si>
+  <si>
+    <t>DELETE LINE BEFORE CURSOR</t>
+  </si>
+  <si>
+    <t>DELETE BLOCK</t>
   </si>
 </sst>
 </file>
@@ -625,15 +634,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -824,145 +833,161 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>14</v>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
+      <c r="A27" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>76</v>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" t="s">
-        <v>28</v>
+      <c r="A33" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>41</v>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" t="s">
-        <v>45</v>
+      <c r="A42" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>46</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" t="s">
         <v>47</v>
       </c>
     </row>
